--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H2">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I2">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J2">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N2">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O2">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P2">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q2">
-        <v>26.09076740469167</v>
+        <v>53.77964907934177</v>
       </c>
       <c r="R2">
-        <v>234.816906642225</v>
+        <v>484.016841714076</v>
       </c>
       <c r="S2">
-        <v>0.003899326144729957</v>
+        <v>0.005921783779578616</v>
       </c>
       <c r="T2">
-        <v>0.003899326144729956</v>
+        <v>0.005921783779578615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H3">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I3">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J3">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>171.503098</v>
       </c>
       <c r="O3">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P3">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q3">
-        <v>73.02718153828646</v>
+        <v>73.02794377427756</v>
       </c>
       <c r="R3">
-        <v>657.2446338445781</v>
+        <v>657.251493968498</v>
       </c>
       <c r="S3">
-        <v>0.01091408289496981</v>
+        <v>0.008041251668646793</v>
       </c>
       <c r="T3">
-        <v>0.01091408289496981</v>
+        <v>0.008041251668646793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H4">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I4">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J4">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N4">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O4">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P4">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q4">
-        <v>28.79480139854256</v>
+        <v>35.25240054012233</v>
       </c>
       <c r="R4">
-        <v>259.153212586883</v>
+        <v>317.271604861101</v>
       </c>
       <c r="S4">
-        <v>0.004303450342570351</v>
+        <v>0.003881711712207771</v>
       </c>
       <c r="T4">
-        <v>0.004303450342570351</v>
+        <v>0.003881711712207771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H5">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I5">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J5">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N5">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O5">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P5">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q5">
-        <v>0.1509970446948889</v>
+        <v>0.1441703119975555</v>
       </c>
       <c r="R5">
-        <v>1.358973402254</v>
+        <v>1.297532807978</v>
       </c>
       <c r="S5">
-        <v>2.256686110542926E-05</v>
+        <v>1.587487887517399E-05</v>
       </c>
       <c r="T5">
-        <v>2.256686110542926E-05</v>
+        <v>1.587487887517398E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H6">
         <v>136.341755</v>
       </c>
       <c r="I6">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J6">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N6">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O6">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P6">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q6">
-        <v>928.2408002097083</v>
+        <v>1913.318327229931</v>
       </c>
       <c r="R6">
-        <v>8354.167201887374</v>
+        <v>17219.86494506938</v>
       </c>
       <c r="S6">
-        <v>0.1387277562488218</v>
+        <v>0.2106792742110501</v>
       </c>
       <c r="T6">
-        <v>0.1387277562488218</v>
+        <v>0.2106792742110501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H7">
         <v>136.341755</v>
       </c>
       <c r="I7">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J7">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>171.503098</v>
       </c>
       <c r="O7">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P7">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q7">
-        <v>2598.114818806332</v>
+        <v>2598.114818806333</v>
       </c>
       <c r="R7">
         <v>23383.03336925699</v>
       </c>
       <c r="S7">
-        <v>0.3882943296700471</v>
+        <v>0.2860835735241001</v>
       </c>
       <c r="T7">
-        <v>0.3882943296700471</v>
+        <v>0.2860835735241001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H8">
         <v>136.341755</v>
       </c>
       <c r="I8">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J8">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N8">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O8">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P8">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q8">
-        <v>1024.443209257863</v>
+        <v>1254.174491409528</v>
       </c>
       <c r="R8">
-        <v>9219.988883320764</v>
+        <v>11287.57042268576</v>
       </c>
       <c r="S8">
-        <v>0.1531054310396376</v>
+        <v>0.1380996396803024</v>
       </c>
       <c r="T8">
-        <v>0.1531054310396376</v>
+        <v>0.1380996396803024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H9">
         <v>136.341755</v>
       </c>
       <c r="I9">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J9">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N9">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O9">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P9">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q9">
-        <v>5.372077234174443</v>
+        <v>5.129146524932222</v>
       </c>
       <c r="R9">
-        <v>48.34869510756999</v>
+        <v>46.16231872439</v>
       </c>
       <c r="S9">
-        <v>0.0008028694934806019</v>
+        <v>0.0005647804925170666</v>
       </c>
       <c r="T9">
-        <v>0.0008028694934806021</v>
+        <v>0.0005647804925170666</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H10">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I10">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J10">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N10">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O10">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P10">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q10">
-        <v>398.7196344189166</v>
+        <v>1008.741441641011</v>
       </c>
       <c r="R10">
-        <v>3588.476709770249</v>
+        <v>9078.672974769101</v>
       </c>
       <c r="S10">
-        <v>0.05958958089623984</v>
+        <v>0.1110745199933462</v>
       </c>
       <c r="T10">
-        <v>0.05958958089623984</v>
+        <v>0.1110745199933462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H11">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I11">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J11">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>171.503098</v>
       </c>
       <c r="O11">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P11">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q11">
-        <v>1116.002863156624</v>
+        <v>1369.780475403672</v>
       </c>
       <c r="R11">
-        <v>10044.02576840962</v>
+        <v>12328.02427863305</v>
       </c>
       <c r="S11">
-        <v>0.1667892352264653</v>
+        <v>0.1508292437695511</v>
       </c>
       <c r="T11">
-        <v>0.1667892352264654</v>
+        <v>0.1508292437695511</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H12">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I12">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J12">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N12">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O12">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P12">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q12">
-        <v>440.0427365247855</v>
+        <v>661.2270245513583</v>
       </c>
       <c r="R12">
-        <v>3960.38462872307</v>
+        <v>5951.043220962226</v>
       </c>
       <c r="S12">
-        <v>0.06576541504950377</v>
+        <v>0.07280901857188522</v>
       </c>
       <c r="T12">
-        <v>0.06576541504950377</v>
+        <v>0.07280901857188522</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H13">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I13">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J13">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N13">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O13">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P13">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q13">
-        <v>2.307539886628888</v>
+        <v>2.704193330672222</v>
       </c>
       <c r="R13">
-        <v>20.76785897965999</v>
+        <v>24.33773997605</v>
       </c>
       <c r="S13">
-        <v>0.0003448672271832533</v>
+        <v>0.0002977640887688632</v>
       </c>
       <c r="T13">
-        <v>0.0003448672271832534</v>
+        <v>0.0002977640887688632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H14">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I14">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J14">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N14">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O14">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P14">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q14">
-        <v>10.14365411980833</v>
+        <v>35.23427035583556</v>
       </c>
       <c r="R14">
-        <v>91.292887078275</v>
+        <v>317.10843320252</v>
       </c>
       <c r="S14">
-        <v>0.001515992806917355</v>
+        <v>0.003879715361672427</v>
       </c>
       <c r="T14">
-        <v>0.001515992806917355</v>
+        <v>0.003879715361672427</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H15">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I15">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J15">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>171.503098</v>
       </c>
       <c r="O15">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P15">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q15">
-        <v>28.39174714100689</v>
+        <v>47.84498148505111</v>
       </c>
       <c r="R15">
-        <v>255.525724269062</v>
+        <v>430.60483336546</v>
       </c>
       <c r="S15">
-        <v>0.004243212942122294</v>
+        <v>0.005268305765149531</v>
       </c>
       <c r="T15">
-        <v>0.004243212942122294</v>
+        <v>0.005268305765149531</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H16">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I16">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J16">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N16">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O16">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P16">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q16">
-        <v>11.19493732418411</v>
+        <v>23.09595976519667</v>
       </c>
       <c r="R16">
-        <v>100.754435917657</v>
+        <v>207.86363788677</v>
       </c>
       <c r="S16">
-        <v>0.001673109537933892</v>
+        <v>0.00254314191804347</v>
       </c>
       <c r="T16">
-        <v>0.001673109537933892</v>
+        <v>0.00254314191804347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H17">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I17">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J17">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N17">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O17">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P17">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q17">
-        <v>0.05870512625177778</v>
+        <v>0.0944546094511111</v>
       </c>
       <c r="R17">
-        <v>0.528346136266</v>
+        <v>0.85009148506</v>
       </c>
       <c r="S17">
-        <v>8.773618271652182E-06</v>
+        <v>1.040058430520478E-05</v>
       </c>
       <c r="T17">
-        <v>8.773618271652182E-06</v>
+        <v>1.040058430520478E-05</v>
       </c>
     </row>
   </sheetData>
